--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3263993.617824721</v>
+        <v>-3264807.065036609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954288</v>
+        <v>2927877.345954295</v>
       </c>
     </row>
     <row r="8">
@@ -1370,16 +1370,16 @@
         <v>301.1059717842872</v>
       </c>
       <c r="C11" t="n">
-        <v>1.399845719676193</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>298.4391365043321</v>
       </c>
       <c r="G11" t="n">
         <v>322.4070376922379</v>
@@ -1421,22 +1421,22 @@
         <v>84.0821803754517</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>130.7597296842796</v>
       </c>
       <c r="U11" t="n">
         <v>163.296248452629</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H12" t="n">
-        <v>96.1543886631359</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898427</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438475</v>
+        <v>67.85571073597559</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196315</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774259</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033079</v>
+        <v>77.99174215033081</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366592</v>
+        <v>66.63306124366594</v>
       </c>
       <c r="I13" t="n">
-        <v>18.23064986272021</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.162769912717</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
@@ -1585,13 +1585,13 @@
         <v>195.3080224141332</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.1308190586099</v>
       </c>
       <c r="W13" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250263</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842872</v>
+        <v>301.105971784287</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>153.2994963761069</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G14" t="n">
-        <v>156.3495227299469</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545168</v>
+        <v>84.08218037545154</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
-        <v>163.296248452629</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H15" t="n">
-        <v>96.1543886631359</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898427</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438475</v>
+        <v>78.92267750438461</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196314</v>
+        <v>62.544041901963</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774259</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.9587160859289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033079</v>
+        <v>77.99174215033065</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366594</v>
+        <v>66.63306124366579</v>
       </c>
       <c r="I16" t="n">
-        <v>46.4960054222766</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271701</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>107.2968008509794</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706115</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>41.52959158177435</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864011078</v>
       </c>
       <c r="T17" t="n">
         <v>53.82993817283892</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118839</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130257</v>
@@ -1941,7 +1941,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1.061950638890176</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.006104322176468</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794442</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T19" t="n">
         <v>63.88762135917109</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026926</v>
+        <v>274.3401836493502</v>
       </c>
       <c r="V19" t="n">
         <v>92.20102754716925</v>
@@ -2087,7 +2087,7 @@
         <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449621</v>
       </c>
       <c r="F20" t="n">
         <v>244.082754932939</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864011078</v>
       </c>
       <c r="T20" t="n">
         <v>53.82993817283892</v>
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S21" t="n">
-        <v>145.9169861849574</v>
+        <v>145.9169861849578</v>
       </c>
       <c r="T21" t="n">
         <v>185.6363186866066</v>
@@ -2217,7 +2217,7 @@
         <v>216.2908792854683</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261503</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.37012655389063</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.025802300711</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T22" t="n">
         <v>63.88762135917109</v>
@@ -2305,7 +2305,7 @@
         <v>63.01301561358562</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965331</v>
+        <v>209.8498361163109</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011101</v>
+        <v>7.152388864011078</v>
       </c>
       <c r="T23" t="n">
         <v>53.82993817283892</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118839</v>
       </c>
       <c r="V23" t="n">
         <v>167.6825575130257</v>
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>133.346860069625</v>
       </c>
       <c r="G24" t="n">
         <v>127.1529440554385</v>
@@ -2415,7 +2415,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I24" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S24" t="n">
-        <v>145.9169861849578</v>
+        <v>145.9169861849574</v>
       </c>
       <c r="T24" t="n">
         <v>185.6363186866066</v>
@@ -2479,7 +2479,7 @@
         <v>1.992885992944139</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.420778506142225</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794442</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T25" t="n">
         <v>63.88762135917109</v>
@@ -2542,7 +2542,7 @@
         <v>63.01301561358562</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965331</v>
+        <v>209.8498361163109</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F26" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
         <v>47.81868876500859</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I27" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157968</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698017</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455856</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033801</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852431</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292621</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626134</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487202</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X28" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D29" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3387114389978</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F29" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G29" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500856</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804712</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V29" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W29" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X29" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.77334520310322</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945687</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157968</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698017</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455856</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033801</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852431</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292621</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626134</v>
+        <v>53.13104232626142</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487201</v>
+        <v>32.99398650487208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531242</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X31" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500862</v>
+        <v>47.81868876500856</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804713</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
@@ -3126,7 +3126,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I33" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3202,10 +3202,10 @@
         <v>64.48972323292624</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487203</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.516348149965</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076468</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521748</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995738</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830684</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970464</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I36" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466212</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700626</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600864</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343774</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506288</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T37" t="n">
-        <v>96.7446256024182</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798111</v>
+        <v>151.2352351459383</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W37" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070408</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677177</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112968</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T38" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970466</v>
@@ -3600,7 +3600,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I39" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006271</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343888</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.29098035119048</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628967</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949011</v>
+        <v>150.2249178610283</v>
       </c>
       <c r="X40" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220804</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112968</v>
+        <v>20.49255674112963</v>
       </c>
       <c r="T41" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I42" t="n">
-        <v>57.77334520310323</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.51683636612761</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343888</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506299</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628967</v>
+        <v>96.74462560241774</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242878</v>
@@ -3961,10 +3961,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521748</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995747</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830692</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I45" t="n">
-        <v>57.77334520310323</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945688</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.1330590246622</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006268</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.601992861725222</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600872</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343859</v>
+        <v>3.043437609343999</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506296</v>
+        <v>54.7741439850631</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628964</v>
+        <v>77.22778923628978</v>
       </c>
       <c r="U46" t="n">
-        <v>151.2352351459389</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070417</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677186</v>
+        <v>67.228051246772</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1306.143511207995</v>
+        <v>1269.076140223999</v>
       </c>
       <c r="C11" t="n">
-        <v>1304.729525632564</v>
+        <v>977.0384748280703</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.729525632564</v>
+        <v>977.0384748280703</v>
       </c>
       <c r="E11" t="n">
-        <v>999.8398990099357</v>
+        <v>977.0384748280703</v>
       </c>
       <c r="F11" t="n">
         <v>675.5848015913705</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547665</v>
+        <v>349.9211271547666</v>
       </c>
       <c r="H11" t="n">
         <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>287.2391769275717</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773725</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144587</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P11" t="n">
         <v>2379.433668932841</v>
@@ -5075,16 +5075,16 @@
         <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.425004661992</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.29095745475</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.29095745475</v>
+        <v>1573.223586470753</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877968</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189227</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091348</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E12" t="n">
-        <v>469.242993166006</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158804</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881647</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H12" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738865</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K12" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M12" t="n">
-        <v>1398.552487108882</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5142,13 +5142,13 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
         <v>1936.382561450211</v>
@@ -5160,10 +5160,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.9625734968571</v>
+        <v>328.431900277757</v>
       </c>
       <c r="C13" t="n">
-        <v>277.2426972298018</v>
+        <v>259.8907783222262</v>
       </c>
       <c r="D13" t="n">
-        <v>277.2426972298018</v>
+        <v>196.7149784212533</v>
       </c>
       <c r="E13" t="n">
-        <v>215.129776262385</v>
+        <v>196.7149784212533</v>
       </c>
       <c r="F13" t="n">
-        <v>215.129776262385</v>
+        <v>196.7149784212533</v>
       </c>
       <c r="G13" t="n">
-        <v>136.3502387367981</v>
+        <v>117.9354408956666</v>
       </c>
       <c r="H13" t="n">
-        <v>69.04411626844868</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
         <v>96.79005415413167</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405358</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
         <v>714.1904553447744</v>
@@ -5218,31 +5218,31 @@
         <v>1357.735393016881</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962689</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.106858962689</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730987</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212474</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911273</v>
+        <v>969.0268560292247</v>
       </c>
       <c r="V13" t="n">
-        <v>920.3775934911273</v>
+        <v>798.1876448589118</v>
       </c>
       <c r="W13" t="n">
-        <v>724.1172852797908</v>
+        <v>601.9273366475753</v>
       </c>
       <c r="X13" t="n">
-        <v>582.760914446431</v>
+        <v>460.5709658142155</v>
       </c>
       <c r="Y13" t="n">
-        <v>450.6218489099725</v>
+        <v>328.431900277757</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1412.66839020428</v>
+        <v>1459.577501770046</v>
       </c>
       <c r="C14" t="n">
-        <v>1120.630724808352</v>
+        <v>1459.577501770046</v>
       </c>
       <c r="D14" t="n">
-        <v>837.7028533068403</v>
+        <v>1304.729525632564</v>
       </c>
       <c r="E14" t="n">
-        <v>532.8132266842117</v>
+        <v>999.839899009935</v>
       </c>
       <c r="F14" t="n">
-        <v>208.5581292656474</v>
+        <v>675.5848015913699</v>
       </c>
       <c r="G14" t="n">
-        <v>50.62931842731714</v>
+        <v>349.9211271547661</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731714</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
@@ -5279,13 +5279,13 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L14" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N14" t="n">
         <v>1679.700173710448</v>
@@ -5306,22 +5306,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.534426037118</v>
+        <v>2314.453891002493</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.588720529412</v>
+        <v>2314.453891002493</v>
       </c>
       <c r="V14" t="n">
-        <v>2281.588720529412</v>
+        <v>2067.370710169698</v>
       </c>
       <c r="W14" t="n">
-        <v>2008.949883658277</v>
+        <v>2067.370710169698</v>
       </c>
       <c r="X14" t="n">
-        <v>1716.815836451035</v>
+        <v>2067.370710169698</v>
       </c>
       <c r="Y14" t="n">
-        <v>1716.815836451035</v>
+        <v>1763.724948016801</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877968</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189227</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091348</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E15" t="n">
-        <v>469.242993166006</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158804</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881647</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H15" t="n">
         <v>108.986232773886</v>
@@ -5355,19 +5355,19 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M15" t="n">
-        <v>1398.552487108882</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O15" t="n">
         <v>1980.672185824252</v>
@@ -5379,13 +5379,13 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
         <v>1936.382561450211</v>
@@ -5397,10 +5397,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.2737993023604</v>
+        <v>339.6106545892809</v>
       </c>
       <c r="C16" t="n">
-        <v>431.553923035305</v>
+        <v>259.8907783222257</v>
       </c>
       <c r="D16" t="n">
-        <v>368.3781231343322</v>
+        <v>196.714978421253</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669154</v>
+        <v>196.714978421253</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639569</v>
+        <v>196.714978421253</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9011029383702</v>
+        <v>117.9354408956664</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002077</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413167</v>
+        <v>96.79005415413181</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958643</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405359</v>
+        <v>470.5847128405363</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447744</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068809</v>
+        <v>957.3332466068816</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.89823519289</v>
+        <v>1319.72625204251</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212474</v>
+        <v>1177.486441062094</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911273</v>
+        <v>980.2056103407482</v>
       </c>
       <c r="V16" t="n">
-        <v>878.4285110852941</v>
+        <v>809.3663991704353</v>
       </c>
       <c r="W16" t="n">
-        <v>878.4285110852941</v>
+        <v>613.106090959099</v>
       </c>
       <c r="X16" t="n">
-        <v>737.0721402519342</v>
+        <v>471.7497201257393</v>
       </c>
       <c r="Y16" t="n">
-        <v>604.9330747154758</v>
+        <v>339.6106545892809</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121853</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021228</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961236</v>
+        <v>458.2309725961238</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J17" t="n">
-        <v>167.8985774144698</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938951</v>
+        <v>287.2391769275706</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436959</v>
+        <v>719.2973161773715</v>
       </c>
       <c r="M17" t="n">
-        <v>1394.84374181091</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
         <v>2379.433668932841</v>
@@ -5540,7 +5540,7 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
         <v>2469.867611227625</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C18" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
         <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411995</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571441</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.552487108882</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621382</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5619,19 +5619,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.2523380015509</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C19" t="n">
-        <v>209.2393218470619</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D19" t="n">
-        <v>209.2393218470619</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E19" t="n">
-        <v>209.2393218470619</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F19" t="n">
-        <v>56.758666872839</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G19" t="n">
-        <v>55.68598945981862</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H19" t="n">
-        <v>55.68598945981862</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I19" t="n">
-        <v>55.68598945981862</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0311552538832</v>
+        <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833887</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
-        <v>403.7082365724609</v>
+        <v>403.7082365724611</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194013</v>
+        <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748511</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P19" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R19" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799328</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T19" t="n">
-        <v>676.5462392120833</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9722686033028</v>
+        <v>399.4349425965785</v>
       </c>
       <c r="V19" t="n">
-        <v>463.8399175455561</v>
+        <v>306.3025915388317</v>
       </c>
       <c r="W19" t="n">
-        <v>345.2864694467859</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X19" t="n">
-        <v>281.6369587259923</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y19" t="n">
-        <v>227.2047533021001</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121858</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961238</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J20" t="n">
-        <v>167.8985774144698</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938951</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436959</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144587</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P20" t="n">
         <v>2379.433668932841</v>
@@ -5780,13 +5780,13 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112258</v>
       </c>
       <c r="W20" t="n">
         <v>2018.320468353689</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
         <v>334.5491951158793</v>
@@ -5823,46 +5823,46 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411995</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571441</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.552487108882</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621382</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
         <v>1707.986938898544</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.5131196250191</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C22" t="n">
-        <v>94.50010347053008</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D22" t="n">
-        <v>94.50010347053008</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E22" t="n">
-        <v>94.50010347053008</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F22" t="n">
-        <v>94.50010347053008</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G22" t="n">
-        <v>93.42742605750969</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H22" t="n">
-        <v>93.42742605750969</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I22" t="n">
-        <v>93.42742605750969</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0311552538832</v>
+        <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833887</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
-        <v>403.7082365724609</v>
+        <v>403.7082365724611</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194013</v>
+        <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748511</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P22" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R22" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S22" t="n">
-        <v>626.3399717034009</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T22" t="n">
-        <v>561.8070208355514</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U22" t="n">
-        <v>442.233050226771</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V22" t="n">
-        <v>349.1006991690243</v>
+        <v>463.8399175455565</v>
       </c>
       <c r="W22" t="n">
-        <v>230.547251070254</v>
+        <v>345.2864694467863</v>
       </c>
       <c r="X22" t="n">
-        <v>166.8977403494605</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.4655349255682</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121858</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961243</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
@@ -5987,22 +5987,22 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144698</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938951</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436958</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144587</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
         <v>2379.433668932841</v>
@@ -6014,25 +6014,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
         <v>2469.867611227625</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832486</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112258</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.32046835369</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259014</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E24" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F24" t="n">
         <v>334.5491951158793</v>
@@ -6060,28 +6060,28 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J24" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K24" t="n">
-        <v>326.2038087596719</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L24" t="n">
-        <v>753.9911953756166</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M24" t="n">
-        <v>935.0807557888485</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
         <v>2337.264736621381</v>
@@ -6093,19 +6093,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015509</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470619</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D25" t="n">
-        <v>56.16742867482461</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E25" t="n">
-        <v>56.16742867482461</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F25" t="n">
-        <v>56.16742867482461</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G25" t="n">
-        <v>55.09475126180423</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H25" t="n">
-        <v>55.09475126180423</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I25" t="n">
-        <v>55.09475126180423</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J25" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0311552538832</v>
+        <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833887</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7082365724609</v>
+        <v>403.7082365724611</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7438668194013</v>
+        <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748511</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P25" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R25" t="n">
-        <v>782.9316911990686</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799328</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120833</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033028</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455561</v>
+        <v>463.8399175455565</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467859</v>
+        <v>345.2864694467863</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259923</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021001</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F26" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
@@ -6236,40 +6236,40 @@
         <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019165</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
         <v>3306.281825613528</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,28 +6300,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
-        <v>69.92034100166291</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>345.4948313340177</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L27" t="n">
-        <v>773.2822179499624</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M27" t="n">
-        <v>1330.6264356017</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485929</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284109</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743113</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266709</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995732</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320423</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
@@ -6403,31 +6403,31 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553699</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909067</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044202</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.116873714835</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967888</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250968</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G29" t="n">
         <v>341.9353438353663</v>
@@ -6458,7 +6458,7 @@
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
@@ -6470,16 +6470,16 @@
         <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O29" t="n">
         <v>2790.032529019166</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
         <v>3449.871985516403</v>
@@ -6488,7 +6488,7 @@
         <v>3496.017050083146</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
         <v>3306.281825613528</v>
@@ -6537,28 +6537,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155453</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314901</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683228</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O30" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485937</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284117</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743122</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537687</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976836</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189702</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.324072026671</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995733</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6640,7 +6640,7 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
         <v>1519.323011771655</v>
@@ -6649,22 +6649,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909077</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044213</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148358</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>964.5773097967885</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250966</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G32" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322123</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>596.8002826177375</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.332581610935</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
         <v>2293.683758630804</v>
@@ -6716,7 +6716,7 @@
         <v>2790.032529019166</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516403</v>
@@ -6737,7 +6737,7 @@
         <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
@@ -6774,19 +6774,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155453</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314899</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683228</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N33" t="n">
         <v>1539.862142033962</v>
@@ -6853,49 +6853,49 @@
         <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567084</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266714</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995737</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320426</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R34" t="n">
         <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486827</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U34" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553707</v>
+        <v>943.9574094553701</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909075</v>
+        <v>761.3355041909069</v>
       </c>
       <c r="X34" t="n">
         <v>633.6175363044204</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018754</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442184</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906249</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189931</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137823</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932079</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430083</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
-        <v>1872.198988676083</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321049</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
-        <v>2571.932483898477</v>
+        <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331492</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331492</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655336</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887514</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081351</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.54259393908</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081574</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405122</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564568</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>938.9307320881604</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N36" t="n">
         <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P36" t="n">
         <v>2341.114712920693</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270562</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062218</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062218</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062218</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062218</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000739</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L37" t="n">
-        <v>252.0596313827014</v>
+        <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187139</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741637</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>731.454249331651</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888043</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324295</v>
+        <v>500.6835176324312</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270884</v>
+        <v>394.0762495270898</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807238</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123358</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408492</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338415</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018752</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442182</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906246</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137823</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932079</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430086</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.073599321049</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898477</v>
+        <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331492</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331492</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067724</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.41659209807</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655336</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V38" t="n">
-        <v>2351.851591887514</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081351</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.54259393908</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662985</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>330.0537850589847</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L39" t="n">
-        <v>757.8411716749292</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>1315.185389326668</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N39" t="n">
         <v>1524.421095758928</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P39" t="n">
         <v>2341.114712920693</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270596</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C40" t="n">
-        <v>72.1010685906224</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D40" t="n">
-        <v>72.1010685906224</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E40" t="n">
-        <v>72.1010685906224</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F40" t="n">
-        <v>72.1010685906224</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000751</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L40" t="n">
-        <v>252.0596313827014</v>
+        <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187139</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741637</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S40" t="n">
-        <v>711.7402732042494</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888054</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324304</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>394.0762495270892</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807245</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408496</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018767</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442198</v>
       </c>
       <c r="F41" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906263</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137832</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430091</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7448,13 +7448,13 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
         <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6963688081574</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K42" t="n">
-        <v>417.2708591405122</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L42" t="n">
-        <v>845.0582457564569</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M42" t="n">
         <v>1402.402463408195</v>
@@ -7503,7 +7503,7 @@
         <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P42" t="n">
         <v>2341.114712920693</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201076</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802404</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062242</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000752</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662986</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L43" t="n">
-        <v>252.0596313827014</v>
+        <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187139</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741637</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.454249331651</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162069</v>
+        <v>633.7324052888051</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598321</v>
+        <v>500.6835176324303</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544908</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081261</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X43" t="n">
-        <v>204.637432739738</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682513</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>989.7116209018757</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906246</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137825</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932078</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430086</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110223</v>
@@ -7661,10 +7661,10 @@
         <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.073599321049</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P44" t="n">
-        <v>2571.932483898477</v>
+        <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
         <v>2723.964736331493</v>
@@ -7673,19 +7673,19 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
         <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V44" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939082</v>
@@ -7722,16 +7722,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081574</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405122</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0582457564569</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M45" t="n">
         <v>1402.402463408195</v>
@@ -7740,7 +7740,7 @@
         <v>1524.421095758928</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P45" t="n">
         <v>2341.114712920693</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270589</v>
+        <v>89.20717640050958</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062236</v>
+        <v>73.71924319842591</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062236</v>
+        <v>73.71924319842591</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062236</v>
+        <v>73.71924319842591</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062236</v>
+        <v>72.10106859062266</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000749</v>
+        <v>57.55347413000764</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662985</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
       </c>
       <c r="L46" t="n">
-        <v>252.0596313827014</v>
+        <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717737</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187139</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741637</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983812</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983812</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983812</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="S46" t="n">
-        <v>731.454249331651</v>
+        <v>713.3584478120539</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162069</v>
+        <v>635.3505798966097</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324303</v>
+        <v>502.3016922402347</v>
       </c>
       <c r="V46" t="n">
-        <v>394.076249527089</v>
+        <v>395.6944241348933</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807243</v>
+        <v>263.6660589885284</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123363</v>
+        <v>186.5416312201402</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408495</v>
+        <v>118.6345087486534</v>
       </c>
     </row>
   </sheetData>
@@ -8690,13 +8690,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>230.8346538512782</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494452</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>154.9918226869893</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,10 +8933,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>393.8132110494463</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443432</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869893</v>
+        <v>154.9918226869885</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>230.834653851277</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>377.9966192443442</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869898</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494471</v>
+        <v>393.8132110494452</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>154.9918226869898</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>393.8132110494472</v>
+        <v>393.8132110494452</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.82029131472588</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>225.3613735431754</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.82029131472588</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>243.0898773147946</v>
+        <v>154.9918226869876</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869876</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869889</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>137.263318915369</v>
+        <v>137.2633189153678</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.825599723696</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472588</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>243.0898773147942</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.825599723696</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869884</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869884</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.7174430222927</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.5734099400475</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898428</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.06696676840917</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196314</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.4917917577426</v>
       </c>
       <c r="F13" t="n">
-        <v>61.9587160859289</v>
+        <v>61.95871608592891</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>28.26535555955638</v>
+        <v>46.4960054222766</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271701</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>126.7990964103898</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>166.057514962291</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241314</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842795</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.2962484526288</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.72268265898413</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.49179175774245</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592876</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227645</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271684</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>11.06696676840548</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>127.6012274768355</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1299853.845929101</v>
+        <v>1299853.8459291</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1467027.191965606</v>
+        <v>1467027.191965605</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1467027.191965606</v>
+        <v>1467027.191965605</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1467027.191965606</v>
+        <v>1467027.191965605</v>
       </c>
     </row>
     <row r="10">
@@ -26317,31 +26317,31 @@
         <v>38293.83157536521</v>
       </c>
       <c r="D2" t="n">
-        <v>38293.83157536521</v>
+        <v>38293.83157536522</v>
       </c>
       <c r="E2" t="n">
-        <v>33464.33990598833</v>
+        <v>33464.33990598834</v>
       </c>
       <c r="F2" t="n">
-        <v>33464.33990598834</v>
+        <v>33464.33990598836</v>
       </c>
       <c r="G2" t="n">
+        <v>38381.20302470905</v>
+      </c>
+      <c r="H2" t="n">
+        <v>38381.20302470907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38381.20302470907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38381.20302470907</v>
+      </c>
+      <c r="K2" t="n">
         <v>38381.20302470906</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>38381.20302470904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38381.20302470905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38381.20302470906</v>
-      </c>
-      <c r="K2" t="n">
-        <v>38381.20302470907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>38381.20302470906</v>
       </c>
       <c r="M2" t="n">
         <v>38381.2030247091</v>
@@ -26350,7 +26350,7 @@
         <v>38381.2030247091</v>
       </c>
       <c r="O2" t="n">
-        <v>38381.2030247091</v>
+        <v>38381.20302470912</v>
       </c>
       <c r="P2" t="n">
         <v>38381.2030247091</v>
@@ -26375,10 +26375,10 @@
         <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.256401966592031e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915249</v>
+        <v>61543.83320915238</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613918</v>
+        <v>83547.74167613921</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915246</v>
+        <v>61543.83320915241</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415065</v>
+        <v>149683.3109415064</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561258</v>
+        <v>20455.48779561261</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>255024.1601164462</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164464</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745583</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="H4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="I4" t="n">
-        <v>310950.7206745583</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="J4" t="n">
-        <v>309193.0084127065</v>
+        <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
-        <v>309193.0084127064</v>
+        <v>309193.0084127063</v>
       </c>
       <c r="L4" t="n">
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657603</v>
+        <v>308176.3362657601</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
       <c r="O4" t="n">
         <v>308176.3362657602</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975544</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975547</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="I5" t="n">
         <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462553</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="M5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
-        <v>57153.73105654692</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654693</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
         <v>57153.73105654694</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396941.1748389425</v>
+        <v>-396945.5434114097</v>
       </c>
       <c r="C6" t="n">
-        <v>-396941.1748389425</v>
+        <v>-396945.5434114097</v>
       </c>
       <c r="D6" t="n">
-        <v>-396941.1748389425</v>
+        <v>-396945.5434114097</v>
       </c>
       <c r="E6" t="n">
-        <v>-638271.9927251847</v>
+        <v>-638517.8358811205</v>
       </c>
       <c r="F6" t="n">
-        <v>-270441.6532102133</v>
+        <v>-270687.4963661496</v>
       </c>
       <c r="G6" t="n">
-        <v>-389462.5945013324</v>
+        <v>-389462.5945013323</v>
       </c>
       <c r="H6" t="n">
-        <v>-327918.7612921799</v>
+        <v>-327918.7612921798</v>
       </c>
       <c r="I6" t="n">
-        <v>-327918.7612921799</v>
+        <v>-327918.7612921798</v>
       </c>
       <c r="J6" t="n">
         <v>-419037.6584487621</v>
@@ -26552,16 +26552,16 @@
         <v>-397033.7499817754</v>
       </c>
       <c r="M6" t="n">
-        <v>-476632.1752391047</v>
+        <v>-476632.1752391044</v>
       </c>
       <c r="N6" t="n">
         <v>-326948.864297598</v>
       </c>
       <c r="O6" t="n">
-        <v>-347404.3520932106</v>
+        <v>-347404.3520932107</v>
       </c>
       <c r="P6" t="n">
-        <v>-326948.8642975981</v>
+        <v>-326948.8642975979</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26716,16 +26716,16 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
         <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="F3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="H3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="I3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="J3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="K3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="L3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="N3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="O3" t="n">
+        <v>134.0206915791157</v>
+      </c>
+      <c r="P3" t="n">
         <v>134.0206915791156</v>
-      </c>
-      <c r="F3" t="n">
-        <v>134.0206915791156</v>
-      </c>
-      <c r="G3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="H3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="I3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="J3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="K3" t="n">
-        <v>134.0206915791156</v>
-      </c>
-      <c r="L3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="N3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="O3" t="n">
-        <v>134.0206915791155</v>
-      </c>
-      <c r="P3" t="n">
-        <v>134.0206915791155</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>632.8664803414642</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="I4" t="n">
         <v>632.8664803414641</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207864</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="M4" t="n">
-        <v>680.991184082873</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
-        <v>680.991184082873</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828732</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828731</v>
+        <v>680.9911840828734</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.570502458240038e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144061</v>
+        <v>76.92979151144047</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451572</v>
+        <v>25.56935974451565</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="M2" t="n">
-        <v>50.0876047169176</v>
+        <v>50.0876047169174</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451572</v>
+        <v>25.56935974451576</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793222</v>
+        <v>241.1377821793226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035508</v>
+        <v>439.853401903551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.570502458240038e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144061</v>
+        <v>76.92979151144047</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451572</v>
+        <v>25.56935974451565</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855174</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855175</v>
+        <v>88.99713233855189</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499924</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>165.9269238499924</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>37.36402223171416</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
         <v>165.9269238499924</v>
@@ -28776,7 +28776,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.96497110333479</v>
       </c>
       <c r="V19" t="n">
         <v>165.9269238499924</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>52.33509765722576</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
         <v>165.9269238499924</v>
@@ -29025,7 +29025,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334761</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>37.9493480477484</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
         <v>165.9269238499924</v>
@@ -29262,7 +29262,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334761</v>
       </c>
     </row>
     <row r="26">
@@ -29308,10 +29308,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N26" t="n">
+        <v>0.1485704102022964</v>
+      </c>
+      <c r="O26" t="n">
         <v>102.4991512559563</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.1485704102010459</v>
       </c>
       <c r="P26" t="n">
         <v>102.4991512559563</v>
@@ -29475,7 +29475,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559558</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R28" t="n">
         <v>102.4991512559563</v>
@@ -29542,13 +29542,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102012733</v>
       </c>
       <c r="N29" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1485704102014438</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
         <v>102.4991512559563</v>
@@ -29773,7 +29773,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1485704102018417</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
         <v>102.4991512559563</v>
@@ -29782,7 +29782,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102018417</v>
       </c>
       <c r="O32" t="n">
         <v>102.4991512559563</v>
@@ -29931,7 +29931,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559561</v>
       </c>
       <c r="L34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389063</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T37" t="n">
-        <v>133.0699196067453</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067467</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389063</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>133.0699196067463</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4390120583531</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>152.5867559728738</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389063</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,16 +30660,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440142</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
         <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="U43" t="n">
         <v>152.5867559728738</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591277</v>
+        <v>55.88797492591273</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,19 +30864,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>149.3538555627554</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389063</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440142</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>133.0699196067461</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611574</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563507</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T12" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611574</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563507</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T15" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R16" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T16" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611564</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P17" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563499</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309712</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O18" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08653964607837</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R19" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T19" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611564</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P20" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563499</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309712</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O21" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08653964607837</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T22" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611564</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P23" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563499</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309712</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O24" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08653964607837</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T25" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611564</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P26" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563499</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309712</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O27" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08653964607837</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P28" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R28" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T28" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642833</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350218</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232705</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095663</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701276</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611571</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780454</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337906</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427421</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815595</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563504</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319244</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514266</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097958</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634081</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I30" t="n">
-        <v>9.92511725373639</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194084</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309716</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L30" t="n">
-        <v>62.5914560058879</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061798</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933939</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483285</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690127</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149604</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R30" t="n">
-        <v>17.8980840565468</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429756</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067992</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459461</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519909</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607839</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608355</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630912</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653589</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428285</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905065</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735333</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844645</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049681</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412532</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T31" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J32" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611564</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P32" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563499</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309712</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O33" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H34" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607837</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P34" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R34" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T34" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J35" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611564</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P35" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563499</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309712</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O36" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H37" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607837</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P37" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R37" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T37" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J38" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611564</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P38" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563499</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309712</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O39" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H40" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607837</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P40" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R40" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T40" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J41" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611564</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P41" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563499</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309712</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O42" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H43" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607837</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P43" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R43" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642828</v>
+        <v>0.5387766495642835</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350214</v>
+        <v>5.517746362350221</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232704</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J44" t="n">
-        <v>45.7279946609566</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701271</v>
+        <v>68.53441023701279</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611564</v>
+        <v>85.02299612611574</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780445</v>
+        <v>94.60446536780458</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337898</v>
+        <v>96.13526452337911</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427414</v>
+        <v>90.77780421427425</v>
       </c>
       <c r="P44" t="n">
-        <v>77.4767556781559</v>
+        <v>77.47675567815598</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563499</v>
+        <v>58.18181691563507</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319241</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194611</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467649</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514262</v>
+        <v>0.04310213196514268</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097956</v>
+        <v>0.2882709215097959</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634079</v>
+        <v>2.784090215634082</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736383</v>
+        <v>9.925117253736396</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194082</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309712</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588785</v>
+        <v>62.59145600588793</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061792</v>
+        <v>73.04127691061801</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933932</v>
+        <v>74.97446216933942</v>
       </c>
       <c r="O45" t="n">
-        <v>68.5869854348328</v>
+        <v>68.58698543483288</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690122</v>
+        <v>55.04710254690129</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149601</v>
+        <v>36.79753026149606</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654679</v>
+        <v>17.89808405654681</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429751</v>
+        <v>5.354505932429758</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067991</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459182</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459459</v>
+        <v>0.2416766569459462</v>
       </c>
       <c r="H46" t="n">
-        <v>2.14872518630123</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519902</v>
+        <v>7.267876192519911</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607837</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608353</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630909</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653586</v>
+        <v>37.88391450653591</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428282</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905062</v>
+        <v>34.15989692905066</v>
       </c>
       <c r="P46" t="n">
-        <v>29.2296931273533</v>
+        <v>29.22969312735334</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844644</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R46" t="n">
-        <v>10.8666613204968</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412529</v>
+        <v>4.211765012412534</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032618443314496</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614252</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
-        <v>120.5460601142443</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113277</v>
+        <v>301.2613619200907</v>
       </c>
       <c r="N11" t="n">
         <v>478.2881520867284</v>
@@ -35425,10 +35425,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427827</v>
@@ -35495,13 +35495,13 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>123.2511437886204</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P12" t="n">
         <v>360.1944957546763</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466115</v>
+        <v>46.62700578466114</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391236</v>
@@ -35580,7 +35580,7 @@
         <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P13" t="n">
         <v>181.8313544842261</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L14" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954922</v>
       </c>
       <c r="O14" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
@@ -35732,13 +35732,13 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>123.2511437886204</v>
+        <v>123.2511437886197</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
         <v>360.1944957546763</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466115</v>
+        <v>46.6270057846613</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391238</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526329</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842263</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415036</v>
+        <v>71.08228883415052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054801</v>
+        <v>120.5460601142431</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>491.8157444113276</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
-        <v>287.7337695954931</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886208</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O18" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L19" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
         <v>157.0692742313861</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O19" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200924</v>
+        <v>301.2613619200907</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>123.2511437886208</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O21" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
         <v>157.0692742313861</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O22" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
-        <v>301.2613619200926</v>
+        <v>301.2613619200907</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K24" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>182.9187478921534</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482505</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O24" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L25" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
         <v>157.0692742313861</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O25" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
         <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.9215141345429</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.314895667284</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426846</v>
+        <v>478.4367224969307</v>
       </c>
       <c r="O26" t="n">
-        <v>399.0118134859237</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064772</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004356</v>
+        <v>46.61117633004357</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K27" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M27" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>211.3491984164257</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O27" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155436</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614365</v>
@@ -36838,22 +36838,22 @@
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>491.9643148215291</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426846</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O29" t="n">
-        <v>399.0118134859241</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q29" t="n">
         <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004359</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780564</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M30" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O30" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
         <v>360.1944957546763</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206572</v>
+        <v>60.12902470206567</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L31" t="n">
         <v>240.0531914877801</v>
@@ -37005,10 +37005,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155493</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
-        <v>311.249013015682</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9215141345429</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>594.314895667284</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426845</v>
+        <v>478.4367224969302</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316788</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058831</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
         <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004353</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L33" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M33" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O33" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206571</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565281</v>
+        <v>164.521208656528</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
@@ -37239,13 +37239,13 @@
         <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685318</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
-        <v>491.8157444113276</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P35" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L36" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
-        <v>94.82069326434709</v>
+        <v>94.82069326434593</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482505</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O36" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L37" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
         <v>157.0692742313861</v>
@@ -37476,10 +37476,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113276</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P38" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L39" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3491984164252</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O39" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L40" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
         <v>157.0692742313861</v>
@@ -37713,10 +37713,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.4537969567199</v>
+        <v>118.4537969567201</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
-        <v>491.8157444113276</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505208</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L42" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M42" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L43" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
         <v>157.0692742313861</v>
@@ -37950,10 +37950,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>118.4537969567199</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054801</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785866</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M44" t="n">
-        <v>491.8157444113276</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867282</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757226</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9382672499268</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5679317505208</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780561</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427826</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
-        <v>432.108471329237</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N45" t="n">
-        <v>123.2511437886194</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O45" t="n">
-        <v>464.74855188347</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546762</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.1628128732073</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057182</v>
+        <v>62.02205740057186</v>
       </c>
       <c r="L46" t="n">
-        <v>137.5540402318237</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
         <v>157.0692742313861</v>
@@ -38187,10 +38187,10 @@
         <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
-        <v>133.6181257125755</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.8342221456743</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
